--- a/biology/Zoologie/Aepyornithiformes/Aepyornithiformes.xlsx
+++ b/biology/Zoologie/Aepyornithiformes/Aepyornithiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aepyornithidae · Aepyornithidés
 L'ancien ordre des Aepyornithiformes regroupe la seule famille des Aepyornithidae ou Aepyornithidés ou oiseaux-éléphants (terme inventé par Marco Polo), qui comprend trois genres : † Aepyornis, † Vorombe et † Mullerornis. Toutes les espèces de cet ordre sont aujourd'hui éteintes. Deux d'entre elles (Aepyornis maximus et Aepyornis medius) peuvent avoir survécu jusqu'après l'an 1500 et être à l'origine de la légende du Rokh.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aepyornithidés, qui vivaient exclusivement à Madagascar, comptaient dans leurs rangs l'un des oiseaux les plus grands et les plus gros du monde puisqu'il mesurait plus de trois mètres de haut (au même titre que le Moa géant de l'île du Sud de Nouvelle-Zélande et le Pachystruthio dmanisensis de Géorgie) et pesait près d'une demi-tonne, le Vorombe titan.
 La National Geographic Society de Washington possède un œuf intact d'Aepyornis, contenant un squelette d'un oiseau non né.
@@ -547,17 +561,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aepyornis
-Aepyornis gracilis Monnier, 1913
+          <t>Aepyornis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aepyornis gracilis Monnier, 1913
 Aepyornis hildebrandti Burckhardt, 1893
 Aepyornis maximus Geoffroy-Saint Hilaire, 1851
-Aepyornis medius Milne-Edwards &amp; Grandidier, 1866
-Mullerornis
-Mullerornis betsilei Milne-Edwards &amp; Grandidier, 1894
+Aepyornis medius Milne-Edwards &amp; Grandidier, 1866</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aepyornithiformes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aepyornithiformes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres et des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mullerornis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mullerornis betsilei Milne-Edwards &amp; Grandidier, 1894
 Mullerornis agilis Milne-Edwards &amp; Grandidier, 1894
-Mullerornis rudis Milne-Edwards &amp; Grandidier, 1894
-Vorombe
-Vorombe titan, 2018</t>
+Mullerornis rudis Milne-Edwards &amp; Grandidier, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aepyornithiformes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aepyornithiformes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres et des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vorombe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vorombe titan, 2018</t>
         </is>
       </c>
     </row>
